--- a/9_AESA_CC_selection_IMAGE_SSP2_RCP26.xlsx
+++ b/9_AESA_CC_selection_IMAGE_SSP2_RCP26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>RF</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>LSCcumul</t>
   </si>
   <si>
     <t>FWU</t>
@@ -443,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,22 +465,19 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D2">
-        <v>170.265097300383</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -492,46 +486,40 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.01146486864222363</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>4.92394599595233</v>
+        <v>5.132401772401328</v>
       </c>
       <c r="D3">
-        <v>190.1196131998283</v>
+        <v>198.3431012884635</v>
       </c>
       <c r="E3">
-        <v>3.772920612800724</v>
+        <v>4.313470113198597</v>
       </c>
       <c r="F3">
-        <v>2.33065031522447</v>
+        <v>2.515235272536539</v>
       </c>
       <c r="G3">
-        <v>0.01026628010677365</v>
+        <v>0.01898230758479441</v>
       </c>
       <c r="H3">
-        <v>0.01696284364844085</v>
-      </c>
-      <c r="I3">
-        <v>0.07426434125683275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.0754098531013605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -551,14 +539,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -578,14 +563,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -605,14 +587,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -632,14 +611,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -659,49 +635,43 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>9.378491450497783</v>
+        <v>8.226640203815716</v>
       </c>
       <c r="D9">
-        <v>360.3847105002113</v>
+        <v>315.1537394734472</v>
       </c>
       <c r="E9">
-        <v>3.772920612800724</v>
+        <v>4.313470113198597</v>
       </c>
       <c r="F9">
-        <v>2.33065031522447</v>
+        <v>2.515235272536539</v>
       </c>
       <c r="G9">
-        <v>0.02173114874899729</v>
+        <v>0.01898230758479441</v>
       </c>
       <c r="H9">
-        <v>0.01696284364844085</v>
-      </c>
-      <c r="I9">
-        <v>0.07426434125683275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.0754098531013605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D10">
-        <v>170.2454902080228</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -710,154 +680,136 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.01146486864222363</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>4.357640999117798</v>
+        <v>4.497009676489776</v>
       </c>
       <c r="D11">
-        <v>167.6701344948096</v>
+        <v>173.1180933839162</v>
       </c>
       <c r="E11">
-        <v>2.819022760069903</v>
+        <v>3.149693273225468</v>
       </c>
       <c r="F11">
-        <v>1.741397966893531</v>
+        <v>1.836623277914205</v>
       </c>
       <c r="G11">
-        <v>0.009215591592038169</v>
+        <v>0.01386086954148116</v>
       </c>
       <c r="H11">
-        <v>0.01267417134572706</v>
-      </c>
-      <c r="I11">
-        <v>0.05548827811386216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.05506422922034518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.5557450117168726</v>
+        <v>0.5498613193416477</v>
       </c>
       <c r="D12">
-        <v>42.93598465363495</v>
+        <v>38.94820671156215</v>
       </c>
       <c r="E12">
-        <v>8.331609368556673</v>
+        <v>9.022692555086227</v>
       </c>
       <c r="F12">
-        <v>1.853398961168651</v>
+        <v>2.035974138379155</v>
       </c>
       <c r="G12">
-        <v>0.001171591575483446</v>
+        <v>0.2431199845007258</v>
       </c>
       <c r="H12">
-        <v>0.2144383222748448</v>
-      </c>
-      <c r="I12">
-        <v>0.02391281614733904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.01568438140464295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.2477375397090583</v>
+        <v>0.2825049270615232</v>
       </c>
       <c r="D13">
-        <v>71.46053291423247</v>
+        <v>81.64798949437554</v>
       </c>
       <c r="E13">
-        <v>1.479857377830424</v>
+        <v>1.786944692968575</v>
       </c>
       <c r="F13">
-        <v>2.070737653059362</v>
+        <v>2.40225437416191</v>
       </c>
       <c r="G13">
-        <v>0.0001543135253650854</v>
+        <v>0.02419505831526194</v>
       </c>
       <c r="H13">
-        <v>0.01872876591513242</v>
-      </c>
-      <c r="I13">
-        <v>0.01293430621423022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.01389647307899883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>-0.1919324728904827</v>
+        <v>-0.2249328636137867</v>
       </c>
       <c r="D14">
-        <v>82.36409210129078</v>
+        <v>94.04742712321814</v>
       </c>
       <c r="E14">
-        <v>1.160279476241055</v>
+        <v>1.30877281677933</v>
       </c>
       <c r="F14">
-        <v>2.597340213067619</v>
+        <v>2.994802726919739</v>
       </c>
       <c r="G14">
-        <v>0.0001647700557606648</v>
+        <v>0.005330968866507365</v>
       </c>
       <c r="H14">
-        <v>0.004177370081425512</v>
-      </c>
-      <c r="I14">
-        <v>0.01150258855043048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.01265798630430199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>0.01149900890962368</v>
+        <v>0.01287291099747798</v>
       </c>
       <c r="D15">
-        <v>1.034075510491453</v>
+        <v>1.229832790064711</v>
       </c>
       <c r="E15">
-        <v>4.90387651923248</v>
+        <v>5.605696197293039</v>
       </c>
       <c r="F15">
-        <v>3.379615766170535</v>
+        <v>3.858054841032172</v>
       </c>
       <c r="G15">
-        <v>2.408600914899451E-05</v>
+        <v>0.008086065365711792</v>
       </c>
       <c r="H15">
-        <v>0.006843905232585287</v>
-      </c>
-      <c r="I15">
-        <v>0.01458363737989999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.01654375936436674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -877,49 +829,43 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>9.435235541108325</v>
+        <v>8.211554401691027</v>
       </c>
       <c r="D17">
-        <v>535.7103098824821</v>
+        <v>505.8021876881205</v>
       </c>
       <c r="E17">
-        <v>18.69464550193053</v>
+        <v>20.87379953535264</v>
       </c>
       <c r="F17">
-        <v>11.6424905603597</v>
+        <v>13.12770935840718</v>
       </c>
       <c r="G17">
-        <v>0.02219522140001999</v>
+        <v>0.294592946589688</v>
       </c>
       <c r="H17">
-        <v>0.2568625348497151</v>
-      </c>
-      <c r="I17">
-        <v>0.1184216264057619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1138468293726557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D18">
-        <v>170.1621634504138</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -928,154 +874,136 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.01146486864222363</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>3.088466900858899</v>
+        <v>3.119581533450743</v>
       </c>
       <c r="D19">
-        <v>117.8861250561579</v>
+        <v>119.0589117365566</v>
       </c>
       <c r="E19">
-        <v>1.152069733547702</v>
+        <v>1.213806375256203</v>
       </c>
       <c r="F19">
-        <v>0.7116692777853955</v>
+        <v>0.7077848064212519</v>
       </c>
       <c r="G19">
-        <v>0.006770544100735119</v>
+        <v>0.005341603247231495</v>
       </c>
       <c r="H19">
-        <v>0.005179642183821044</v>
-      </c>
-      <c r="I19">
-        <v>0.02267678242515246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.02122026072963562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>1.566483533374143</v>
+        <v>1.551345045480132</v>
       </c>
       <c r="D20">
-        <v>106.093294141812</v>
+        <v>99.4838011385268</v>
       </c>
       <c r="E20">
-        <v>17.81864401004209</v>
+        <v>20.29638968358204</v>
       </c>
       <c r="F20">
-        <v>3.96382677544652</v>
+        <v>4.579888347735418</v>
       </c>
       <c r="G20">
-        <v>0.003057409845573775</v>
+        <v>0.5468941688045804</v>
       </c>
       <c r="H20">
-        <v>0.4586148915174199</v>
-      </c>
-      <c r="I20">
-        <v>0.05114185499563752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.03528174267171615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>0.9650463268105073</v>
+        <v>1.056952071463337</v>
       </c>
       <c r="D21">
-        <v>226.7676585027637</v>
+        <v>242.3318686622142</v>
       </c>
       <c r="E21">
-        <v>4.535157179470577</v>
+        <v>5.096037366688723</v>
       </c>
       <c r="F21">
-        <v>6.34596338455282</v>
+        <v>6.850787326094269</v>
       </c>
       <c r="G21">
-        <v>0.000614940492866781</v>
+        <v>0.06899985307265236</v>
       </c>
       <c r="H21">
-        <v>0.05739600212498967</v>
-      </c>
-      <c r="I21">
-        <v>0.03963835472776133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.03963018349388126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>-0.7449785223394868</v>
+        <v>-0.8338460940385768</v>
       </c>
       <c r="D22">
-        <v>246.4934751103192</v>
+        <v>260.9434510993513</v>
       </c>
       <c r="E22">
-        <v>3.555781709573608</v>
+        <v>3.732379186137021</v>
       </c>
       <c r="F22">
-        <v>7.959784700394986</v>
+        <v>8.540626166157828</v>
       </c>
       <c r="G22">
-        <v>0.0006545855140163324</v>
+        <v>0.01520294201117366</v>
       </c>
       <c r="H22">
-        <v>0.01280192956422413</v>
-      </c>
-      <c r="I22">
-        <v>0.03525072606892697</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.03609824716320498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>0.04517250618055681</v>
+        <v>0.048752145453742</v>
       </c>
       <c r="D23">
-        <v>3.543989601025348</v>
+        <v>3.96181568479744</v>
       </c>
       <c r="E23">
-        <v>15.02837444784008</v>
+        <v>15.9864137933969</v>
       </c>
       <c r="F23">
-        <v>10.35713909692491</v>
+        <v>11.00246230898878</v>
       </c>
       <c r="G23">
-        <v>9.593465941145515E-05</v>
+        <v>0.02305997013522537</v>
       </c>
       <c r="H23">
-        <v>0.02097376842941419</v>
-      </c>
-      <c r="I23">
-        <v>0.04469287970386274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.04717975673117379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1095,49 +1023,43 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>9.374736199430071</v>
+        <v>8.037023133223764</v>
       </c>
       <c r="D25">
-        <v>870.946705862492</v>
+        <v>842.59048650643</v>
       </c>
       <c r="E25">
-        <v>42.09002708047406</v>
+        <v>46.32502640506088</v>
       </c>
       <c r="F25">
-        <v>29.33838323510462</v>
+        <v>31.68154895539755</v>
       </c>
       <c r="G25">
-        <v>0.02265828325482709</v>
+        <v>0.6594985372708633</v>
       </c>
       <c r="H25">
-        <v>0.554966233819869</v>
-      </c>
-      <c r="I25">
-        <v>0.193400597921341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1794101907896118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D26">
-        <v>170.1156312078792</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1146,25 +1068,22 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.01146486864222363</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>1.81261396895785</v>
+        <v>1.788832998238462</v>
       </c>
       <c r="D27">
-        <v>68.4280152257688</v>
+        <v>67.53025946842715</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1173,189 +1092,168 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.004295411650909664</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>3.051801165686335</v>
+        <v>3.031850965693164</v>
       </c>
       <c r="D28">
-        <v>248.2328749397624</v>
+        <v>233.3880282332573</v>
       </c>
       <c r="E28">
-        <v>50.47841234764999</v>
+        <v>58.99227213800416</v>
       </c>
       <c r="F28">
-        <v>11.22911947356272</v>
+        <v>13.31162950570622</v>
       </c>
       <c r="G28">
-        <v>0.006215824298699807</v>
+        <v>1.589569876208323</v>
       </c>
       <c r="H28">
-        <v>1.299209501561528</v>
-      </c>
-      <c r="I28">
-        <v>0.1448796913636425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1025478027196402</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>1.377551380798088</v>
+        <v>1.432923613413865</v>
       </c>
       <c r="D29">
-        <v>216.2573800179421</v>
+        <v>211.0390716593911</v>
       </c>
       <c r="E29">
-        <v>3.913680868257212</v>
+        <v>3.9509605263756</v>
       </c>
       <c r="F29">
-        <v>5.476342826928097</v>
+        <v>5.311419118886932</v>
       </c>
       <c r="G29">
-        <v>0.0009104192027981374</v>
+        <v>0.05349562340295484</v>
       </c>
       <c r="H29">
-        <v>0.04953072772160127</v>
-      </c>
-      <c r="I29">
-        <v>0.03420650363552384</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.03072530269515797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>-1.054020621007923</v>
+        <v>-1.110745001918407</v>
       </c>
       <c r="D30">
-        <v>197.1945952766012</v>
+        <v>184.7831743150063</v>
       </c>
       <c r="E30">
-        <v>3.068514342006046</v>
+        <v>2.893715601515527</v>
       </c>
       <c r="F30">
-        <v>6.869013766137856</v>
+        <v>6.62155208546792</v>
       </c>
       <c r="G30">
-        <v>0.0009641502118048079</v>
+        <v>0.0117868491631477</v>
       </c>
       <c r="H30">
-        <v>0.01104761419054702</v>
-      </c>
-      <c r="I30">
-        <v>0.03042013468301454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.02798699054788241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>0.0654361030510551</v>
+        <v>0.06746661326041149</v>
       </c>
       <c r="D31">
-        <v>4.056996759197145</v>
+        <v>4.191634507703183</v>
       </c>
       <c r="E31">
-        <v>12.96895768547173</v>
+        <v>12.39427525961381</v>
       </c>
       <c r="F31">
-        <v>8.937846149412989</v>
+        <v>8.530214978387395</v>
       </c>
       <c r="G31">
-        <v>0.0001419131429124438</v>
+        <v>0.01787840731687491</v>
       </c>
       <c r="H31">
-        <v>0.01809962323004597</v>
-      </c>
-      <c r="I31">
-        <v>0.03856838061448349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.03657849090890648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>0.04813341649424108</v>
+        <v>0.05871875314302095</v>
       </c>
       <c r="D32">
-        <v>4.530433094143961</v>
+        <v>5.658055796358822</v>
       </c>
       <c r="E32">
-        <v>5.880460839994155</v>
+        <v>7.363106009158322</v>
       </c>
       <c r="F32">
-        <v>13.62326110033337</v>
+        <v>15.02994730991852</v>
       </c>
       <c r="G32">
-        <v>3.803849933084577E-05</v>
+        <v>0.07004046452882561</v>
       </c>
       <c r="H32">
-        <v>0.03839823867054133</v>
-      </c>
-      <c r="I32">
-        <v>0.004248635463289811</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.005061818908447009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>9.756060868525102</v>
+        <v>8.363286373244906</v>
       </c>
       <c r="D33">
-        <v>908.8159265212948</v>
+        <v>823.4008621651274</v>
       </c>
       <c r="E33">
-        <v>76.31002608337914</v>
+        <v>85.59432953466742</v>
       </c>
       <c r="F33">
-        <v>46.13558331637503</v>
+        <v>48.80476299836699</v>
       </c>
       <c r="G33">
-        <v>0.02403062564867934</v>
+        <v>1.742771220620126</v>
       </c>
       <c r="H33">
-        <v>1.416285705374264</v>
-      </c>
-      <c r="I33">
-        <v>0.2523233457599541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.2029004057800341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D34">
-        <v>170.265097300383</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1364,154 +1262,136 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.01146486864222363</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>3.450135729671793</v>
+        <v>3.477443110295514</v>
       </c>
       <c r="D35">
-        <v>131.7540167395177</v>
+        <v>132.653922479074</v>
       </c>
       <c r="E35">
-        <v>1.343159738157058</v>
+        <v>1.294041033959579</v>
       </c>
       <c r="F35">
-        <v>0.8297115122199115</v>
+        <v>0.7545705817609618</v>
       </c>
       <c r="G35">
-        <v>0.007502645189508045</v>
+        <v>0.005694692275438323</v>
       </c>
       <c r="H35">
-        <v>0.006038772338844941</v>
-      </c>
-      <c r="I35">
-        <v>0.02643810548743246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.02262295593040815</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>1.118237673549523</v>
+        <v>1.12348364185078</v>
       </c>
       <c r="D36">
-        <v>120.8288222620427</v>
+        <v>117.8707914843099</v>
       </c>
       <c r="E36">
-        <v>29.83155126566822</v>
+        <v>37.42832629102735</v>
       </c>
       <c r="F36">
-        <v>6.636144792685708</v>
+        <v>8.445716609105942</v>
       </c>
       <c r="G36">
-        <v>0.00238538202290736</v>
+        <v>1.00852091016147</v>
       </c>
       <c r="H36">
-        <v>0.7678021761807712</v>
-      </c>
-      <c r="I36">
-        <v>0.08562048089988904</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.0650626341640085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.7433751083150545</v>
+        <v>0.8024016466284136</v>
       </c>
       <c r="D37">
-        <v>152.8414179474933</v>
+        <v>164.2742657431733</v>
       </c>
       <c r="E37">
-        <v>2.973102593586632</v>
+        <v>3.372911209583792</v>
       </c>
       <c r="F37">
-        <v>4.160208665495977</v>
+        <v>4.5343265176394</v>
       </c>
       <c r="G37">
-        <v>0.0004837231868013554</v>
+        <v>0.04566889156066101</v>
       </c>
       <c r="H37">
-        <v>0.03762696551108978</v>
-      </c>
-      <c r="I37">
-        <v>0.02598562532299521</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.02623000589009211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>-0.5687398777220459</v>
+        <v>-0.6261516159965673</v>
       </c>
       <c r="D38">
-        <v>158.5596412187972</v>
+        <v>169.9073073246446</v>
       </c>
       <c r="E38">
-        <v>2.331055662374048</v>
+        <v>2.470347583718523</v>
       </c>
       <c r="F38">
-        <v>5.218177805228385</v>
+        <v>5.652779141887711</v>
       </c>
       <c r="G38">
-        <v>0.000512595658001032</v>
+        <v>0.01006236215286217</v>
       </c>
       <c r="H38">
-        <v>0.008392531611164872</v>
-      </c>
-      <c r="I38">
-        <v>0.02310923766341727</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.0238923252994541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>0.03522805375730378</v>
+        <v>0.03750711819910303</v>
       </c>
       <c r="D39">
-        <v>2.535275088488546</v>
+        <v>2.820003465677638</v>
       </c>
       <c r="E39">
-        <v>9.852116978552074</v>
+        <v>10.58091815363389</v>
       </c>
       <c r="F39">
-        <v>6.789805930122056</v>
+        <v>7.282193160040502</v>
       </c>
       <c r="G39">
-        <v>7.540947626030898E-05</v>
+        <v>0.0152626886667254</v>
       </c>
       <c r="H39">
-        <v>0.01374972527899379</v>
-      </c>
-      <c r="I39">
-        <v>0.02929920867217249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.03122683742160493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1531,49 +1411,43 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>9.232782142117086</v>
+        <v>7.90892233239163</v>
       </c>
       <c r="D41">
-        <v>736.7842705567225</v>
+        <v>704.336928681863</v>
       </c>
       <c r="E41">
-        <v>46.33098623833803</v>
+        <v>55.14654427192313</v>
       </c>
       <c r="F41">
-        <v>23.63404870575204</v>
+        <v>26.66958601043452</v>
       </c>
       <c r="G41">
-        <v>0.02242462417570173</v>
+        <v>1.085209544817157</v>
       </c>
       <c r="H41">
-        <v>0.8336101709208645</v>
-      </c>
-      <c r="I41">
-        <v>0.1904526580459064</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1690347587055678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D42">
-        <v>170.2510323430308</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1582,46 +1456,40 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0.01146486864222363</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43">
-        <v>2.068961311781404</v>
+        <v>2.043826527069417</v>
       </c>
       <c r="D43">
-        <v>78.16289453390243</v>
+        <v>77.20030190473443</v>
       </c>
       <c r="E43">
-        <v>0.05122462979533669</v>
+        <v>0.04114312237398097</v>
       </c>
       <c r="F43">
-        <v>0.03164304575471436</v>
+        <v>0.02399103967375968</v>
       </c>
       <c r="G43">
-        <v>0.004879614773586476</v>
+        <v>0.0001810587261314324</v>
       </c>
       <c r="H43">
-        <v>0.0002303031193446038</v>
-      </c>
-      <c r="I43">
-        <v>0.001008280793125909</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.0007192809345913176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1641,95 +1509,83 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45">
-        <v>2.251893774330863</v>
+        <v>2.411506614938832</v>
       </c>
       <c r="D45">
-        <v>453.5266920739995</v>
+        <v>470.1934583835198</v>
       </c>
       <c r="E45">
-        <v>8.780649780264298</v>
+        <v>9.544969741095237</v>
       </c>
       <c r="F45">
-        <v>12.28660436519729</v>
+        <v>12.83164800903681</v>
       </c>
       <c r="G45">
-        <v>0.001451297358534527</v>
+        <v>0.1292379671357133</v>
       </c>
       <c r="H45">
-        <v>0.1111260698368281</v>
-      </c>
-      <c r="I45">
-        <v>0.0767449719947714</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.07422804721876249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46">
-        <v>-1.744823224756204</v>
+        <v>-1.902651825607872</v>
       </c>
       <c r="D46">
-        <v>465.82544723401</v>
+        <v>475.8846103515344</v>
       </c>
       <c r="E46">
-        <v>6.884452434894461</v>
+        <v>6.990813416487966</v>
       </c>
       <c r="F46">
-        <v>15.41117077415901</v>
+        <v>15.99674658173717</v>
       </c>
       <c r="G46">
-        <v>0.001544032952200627</v>
+        <v>0.02847538411331705</v>
       </c>
       <c r="H46">
-        <v>0.02478618834291119</v>
-      </c>
-      <c r="I46">
-        <v>0.06824995647613115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.06761266687949205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>0.1054747243474883</v>
+        <v>0.1115933751267473</v>
       </c>
       <c r="D47">
-        <v>7.541702912691533</v>
+        <v>8.186132438695829</v>
       </c>
       <c r="E47">
-        <v>29.09687306770724</v>
+        <v>29.94284086769755</v>
       </c>
       <c r="F47">
-        <v>20.05275838007379</v>
+        <v>20.60781000220116</v>
       </c>
       <c r="G47">
-        <v>0.0002264007988585218</v>
+        <v>0.04319173925412282</v>
       </c>
       <c r="H47">
-        <v>0.04060792335593289</v>
-      </c>
-      <c r="I47">
-        <v>0.08653118487878136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.0883685338209953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1749,49 +1605,43 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>7.136052040249005</v>
+        <v>5.758513122941512</v>
       </c>
       <c r="D49">
-        <v>1175.307769097634</v>
+        <v>1148.275141263468</v>
       </c>
       <c r="E49">
-        <v>44.81319991266134</v>
+        <v>46.51976714765473</v>
       </c>
       <c r="F49">
-        <v>47.7821765651848</v>
+        <v>49.4601956326489</v>
       </c>
       <c r="G49">
-        <v>0.01956621452540378</v>
+        <v>0.2010861492292846</v>
       </c>
       <c r="H49">
-        <v>0.1767504846550167</v>
-      </c>
-      <c r="I49">
-        <v>0.2325343941428098</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.2309285288538412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D50">
-        <v>170.2510323430308</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1800,46 +1650,40 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.01146486864222363</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>2.068961311781404</v>
+        <v>2.043826527069417</v>
       </c>
       <c r="D51">
-        <v>78.16289453390243</v>
+        <v>77.20030190473443</v>
       </c>
       <c r="E51">
-        <v>0.05122462979533669</v>
+        <v>0.04114312237398097</v>
       </c>
       <c r="F51">
-        <v>0.03164304575471436</v>
+        <v>0.02399103967375968</v>
       </c>
       <c r="G51">
-        <v>0.004879614773586476</v>
+        <v>0.0001810587261314324</v>
       </c>
       <c r="H51">
-        <v>0.0002303031193446038</v>
-      </c>
-      <c r="I51">
-        <v>0.001008280793125909</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.0007192809345913176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1859,95 +1703,83 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>0.7957643095579621</v>
+        <v>0.8522611380078645</v>
       </c>
       <c r="D53">
-        <v>160.1051750046748</v>
+        <v>165.9937121767222</v>
       </c>
       <c r="E53">
-        <v>3.099052863622694</v>
+        <v>3.368812849798319</v>
       </c>
       <c r="F53">
-        <v>4.336448599481395</v>
+        <v>4.528816944365933</v>
       </c>
       <c r="G53">
-        <v>0.0005122225971298332</v>
+        <v>0.04561340016554586</v>
       </c>
       <c r="H53">
-        <v>0.03922096582476286</v>
-      </c>
-      <c r="I53">
-        <v>0.02708646070403696</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.02619813431250441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>-0.613869690203633</v>
+        <v>-0.669233049096865</v>
       </c>
       <c r="D54">
-        <v>164.482606102367</v>
+        <v>168.0457665202286</v>
       </c>
       <c r="E54">
-        <v>2.429806741727457</v>
+        <v>2.467345911701635</v>
       </c>
       <c r="F54">
-        <v>5.439236743820826</v>
+        <v>5.645910558260177</v>
       </c>
       <c r="G54">
-        <v>0.0005449528066590446</v>
+        <v>0.01005013556940602</v>
       </c>
       <c r="H54">
-        <v>0.008748066473968657</v>
-      </c>
-      <c r="I54">
-        <v>0.02408821993275218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.0238632941927619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>0.4878589821473772</v>
+        <v>0.5156667247520776</v>
       </c>
       <c r="D55">
-        <v>35.03015514557715</v>
+        <v>38.00933214827893</v>
       </c>
       <c r="E55">
-        <v>135.7854076493005</v>
+        <v>139.7332573825886</v>
       </c>
       <c r="F55">
-        <v>93.57953910701104</v>
+        <v>96.16978001027211</v>
       </c>
       <c r="G55">
-        <v>0.001056537061339768</v>
+        <v>0.2015614498525732</v>
       </c>
       <c r="H55">
-        <v>0.1895036423276868</v>
-      </c>
-      <c r="I55">
-        <v>0.4038121961009797</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.4123864911646447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1967,49 +1799,43 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>7.193260367828563</v>
+        <v>5.836759772146881</v>
       </c>
       <c r="D57">
-        <v>608.0318631295522</v>
+        <v>566.0597509349479</v>
       </c>
       <c r="E57">
-        <v>141.365491884446</v>
+        <v>145.6105592664625</v>
       </c>
       <c r="F57">
-        <v>103.386867496068</v>
+        <v>106.368498552572</v>
       </c>
       <c r="G57">
-        <v>0.01845819588093876</v>
+        <v>0.2574060443136564</v>
       </c>
       <c r="H57">
-        <v>0.237702977745763</v>
-      </c>
-      <c r="I57">
-        <v>0.4559951575308947</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.4631672006045023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D58">
-        <v>170.2510323430308</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2018,73 +1844,64 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.01146486864222363</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>2.068961311781404</v>
+        <v>2.043826527069417</v>
       </c>
       <c r="D59">
-        <v>78.16289453390243</v>
+        <v>77.20030190473443</v>
       </c>
       <c r="E59">
-        <v>0.05122462979533669</v>
+        <v>0.04114312237398097</v>
       </c>
       <c r="F59">
-        <v>0.03164304575471436</v>
+        <v>0.02399103967375968</v>
       </c>
       <c r="G59">
-        <v>0.004879614773586476</v>
+        <v>0.0001810587261314324</v>
       </c>
       <c r="H59">
-        <v>0.0002303031193446038</v>
-      </c>
-      <c r="I59">
-        <v>0.001008280793125909</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.0007192809345913176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>6.219227349528559</v>
+        <v>6.15007865612061</v>
       </c>
       <c r="D60">
-        <v>484.9333563747861</v>
+        <v>445.7100002598532</v>
       </c>
       <c r="E60">
-        <v>94.92429281235869</v>
+        <v>105.9180689051637</v>
       </c>
       <c r="F60">
-        <v>21.1162787290605</v>
+        <v>23.90045407857897</v>
       </c>
       <c r="G60">
-        <v>0.01330568045497909</v>
+        <v>2.854003847892845</v>
       </c>
       <c r="H60">
-        <v>2.443154160663028</v>
-      </c>
-      <c r="I60">
-        <v>0.2724452217484768</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1841201371108854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2104,14 +1921,11 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2131,14 +1945,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2158,14 +1969,11 @@
       <c r="H63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2185,49 +1993,43 @@
       <c r="H64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>12.74273411585542</v>
+        <v>11.28814361460442</v>
       </c>
       <c r="D65">
-        <v>733.3472832517193</v>
+        <v>639.7209403495713</v>
       </c>
       <c r="E65">
-        <v>94.97551744215403</v>
+        <v>105.9592120275377</v>
       </c>
       <c r="F65">
-        <v>21.14792177481521</v>
+        <v>23.92444511825273</v>
       </c>
       <c r="G65">
-        <v>0.02965016387078919</v>
+        <v>2.854184906618977</v>
       </c>
       <c r="H65">
-        <v>2.443384463782373</v>
-      </c>
-      <c r="I65">
-        <v>0.2734535025416027</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1848394180454767</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C66">
-        <v>4.454545454545454</v>
+        <v>3.094238431414388</v>
       </c>
       <c r="D66">
-        <v>170.2510323430308</v>
+        <v>116.8106381849837</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2236,73 +2038,64 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.01146486864222363</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>2.068961311781404</v>
+        <v>2.043826527069417</v>
       </c>
       <c r="D67">
-        <v>78.16289453390243</v>
+        <v>77.20030190473443</v>
       </c>
       <c r="E67">
-        <v>0.05122462979533669</v>
+        <v>0.04114312237398097</v>
       </c>
       <c r="F67">
-        <v>0.03164304575471436</v>
+        <v>0.02399103967375968</v>
       </c>
       <c r="G67">
-        <v>0.004879614773586476</v>
+        <v>0.0001810587261314324</v>
       </c>
       <c r="H67">
-        <v>0.0002303031193446038</v>
-      </c>
-      <c r="I67">
-        <v>0.001008280793125909</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.0007192809345913176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C68">
-        <v>0.04284124815328759</v>
+        <v>0.02327573085622442</v>
       </c>
       <c r="D68">
-        <v>119.1304410731771</v>
+        <v>120.5005305843884</v>
       </c>
       <c r="E68">
-        <v>135.3667835363461</v>
+        <v>136.575428516536</v>
       </c>
       <c r="F68">
-        <v>33.3245298947345</v>
+        <v>33.47433367442302</v>
       </c>
       <c r="G68">
-        <v>0.0003135830723000056</v>
+        <v>0.2368088109987195</v>
       </c>
       <c r="H68">
-        <v>0.2295393548870139</v>
-      </c>
-      <c r="I68">
-        <v>0.06580917689534668</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.06456465102735651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2322,14 +2115,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2349,14 +2139,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2376,14 +2163,11 @@
       <c r="H71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2403,35 +2187,29 @@
       <c r="H72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73">
-        <v>6.566348014480145</v>
+        <v>5.161340689340029</v>
       </c>
       <c r="D73">
-        <v>367.5443679501104</v>
+        <v>314.5114706741065</v>
       </c>
       <c r="E73">
-        <v>135.4180081661414</v>
+        <v>136.61657163891</v>
       </c>
       <c r="F73">
-        <v>33.35617294048922</v>
+        <v>33.49832471409678</v>
       </c>
       <c r="G73">
-        <v>0.01665806648811011</v>
+        <v>0.2369898697248509</v>
       </c>
       <c r="H73">
-        <v>0.2297696580063585</v>
-      </c>
-      <c r="I73">
-        <v>0.0668174576884726</v>
+        <v>0.06528393196194783</v>
       </c>
     </row>
   </sheetData>
